--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medicationadministration.xlsx
@@ -728,7 +728,7 @@
     <t>処方する製剤を表すコード。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -1136,7 +1136,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1155,7 +1155,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1244,7 +1244,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.method.coding.id</t>
@@ -1380,7 +1380,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -1852,7 +1852,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.4765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
